--- a/Indicator.xlsx
+++ b/Indicator.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Architecture\AAA-Master\25Spring\ISUF\UrbanFood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C82DD2-8B11-46AD-B8AB-735972B6660B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCBD8C39-2C8A-4B22-B9EA-ACDE15B036E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>01 PRODUCTION</t>
   </si>
@@ -55,9 +56,6 @@
   </si>
   <si>
     <t>农业用地面积</t>
-  </si>
-  <si>
-    <t>CC STUDIO-6 Landuse</t>
   </si>
   <si>
     <t>2.1 Arable land（可耕地）</t>
@@ -303,6 +301,157 @@
 ├── 12_consumption_landuse_mix/        # 土地混合度计算所需的 landuse 数据
 │
 ├── 13_waste_treatment/                # 废弃物处理设施：垃圾厂、废水厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC STUDIO-6 Landuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>entropy_production</t>
+  </si>
+  <si>
+    <t>entropy_landuse</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Arable land area</t>
+  </si>
+  <si>
+    <t>Aquaculture surface area (coastal lagoons and estuaries)</t>
+  </si>
+  <si>
+    <t>Pasture area</t>
+  </si>
+  <si>
+    <t>Area of water/electric/gas/pipeline facilities</t>
+  </si>
+  <si>
+    <t>Area of ports, hubs, distribution centers</t>
+  </si>
+  <si>
+    <t>Number of markets, supermarkets</t>
+  </si>
+  <si>
+    <t>Number of schools, hospitals, elderly care, community centers</t>
+  </si>
+  <si>
+    <t>Number of restaurants, hotels, bars, guesthouses</t>
+  </si>
+  <si>
+    <t>Number of waste or sewage treatment plants</t>
+  </si>
+  <si>
+    <t>Total road length</t>
+  </si>
+  <si>
+    <t>Number of intersections/nodes</t>
+  </si>
+  <si>
+    <t>Area of built-up regions (residential, commercial, industrial)</t>
+  </si>
+  <si>
+    <t>Entropy of production-related landuse mix</t>
+  </si>
+  <si>
+    <t>Entropy of overall landuse types</t>
+  </si>
+  <si>
+    <t>farming_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquaculture_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasture_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportation_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retail_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public_services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste_treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersection_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>built_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Derived from Landuse</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Polygon (Area)</t>
+  </si>
+  <si>
+    <t>Point (Count)</t>
+  </si>
+  <si>
+    <t>Line (Length)</t>
+  </si>
+  <si>
+    <t>Float (Entropy Score)</t>
+  </si>
+  <si>
+    <t>Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTAT - Landuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTAT - Public services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTAT - Buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTAT - Waste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float (Entropy Score)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +568,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G17"/>
+    <sheetView topLeftCell="C1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -751,125 +906,125 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -877,35 +1032,35 @@
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -913,130 +1068,130 @@
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="17"/>
     </row>
@@ -1056,4 +1211,269 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09D49DA-BE49-4589-B233-DC2A5709DAB8}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="51.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>